--- a/biology/Zoologie/Bambiraptor/Bambiraptor.xlsx
+++ b/biology/Zoologie/Bambiraptor/Bambiraptor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambiraptor feinbergi
 Bambiraptor est un genre éteint de petits dinosaures à plumes de la famille des Dromaeosauridae. Le seul spécimen fossile connu a été découvert dans le Montana (États-Unis), dans la partie supérieure de la formation de Two Medicine datée du Crétacé supérieur, plus précisément du Campanien supérieur, soit il y a environ 72 Ma (millions d'années).
-Une seule espèce est rattachée au genre : Bambiraptor feinbergi, décrite en 2000 par David A. Burnham et ses collègues[1]. 
+Une seule espèce est rattachée au genre : Bambiraptor feinbergi, décrite en 2000 par David A. Burnham et ses collègues. 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambiraptor a été découvert en 1993 par le chasseur de fossiles Wes Linster alors âgé de 14 ans, dans le Parc national de Glacier au Montana. Son nom est composé du personnage de Disney Bambi pour rappeler sa petite taille et de raptor, voleur, un suffixe fréquemment utilisé pour les Dromaeosauridae.
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen découvert, quasi complet et bien préservé, avait une longueur totale d'environ 1 mètre. Il est considéré par ses inventeurs comme un juvénile ayant atteint environ 75 % de son développement complet. Son poids est estimé à environ 2 kg. En 2010, Gregory S. Paul a estimé sa taille d'adulte à 1,30 mètre de long pour un poids de 5 kg[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen découvert, quasi complet et bien préservé, avait une longueur totale d'environ 1 mètre. Il est considéré par ses inventeurs comme un juvénile ayant atteint environ 75 % de son développement complet. Son poids est estimé à environ 2 kg. En 2010, Gregory S. Paul a estimé sa taille d'adulte à 1,30 mètre de long pour un poids de 5 kg.
 Il possède des pattes arrière longues et puissantes, avec de longues griffes, dont une très développée, en forme de faucille, bien connue chez son « cousin » Velociraptor et qui pouvait servir à creuser le sol à la recherche de pontes d'autres animaux, ou de proies vivant dans des terriers. 
 Ses bras sont longs également et sa fourchette bien développée. Son corps était peut-être couvert de plumes mais les conditions de fossilisation n'ont pas permis leur conservation.
 </t>
@@ -577,7 +593,9 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambiraptor était un prédateur habile : avec les griffes de ses pattes antérieures, il pouvait saisir sa proie afin de lui appliquer une morsure fatale. Il se nourrissait de petit animaux (lézards, amphibiens, petits mammifères, insectes) ou d'œufs. Agile, il courait vite et pouvait zigzaguer avec aisance en se servant de sa queue comme d'un balancier.
 </t>
@@ -608,15 +626,17 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La phylogénie des Dromaeosauridae est loin d'être stabilisée et chaque nouvelle espèce découverte conduit systématiquement à des révisions notables.
 En 2000, Bambiraptor est placé par ses inventeurs dans la famille des Dromaeosauridae.
-En 2012, P. Senter et ses collègues le placent comme un Eudromaeosauria basal[3].
-En 2015, Robert DePalma, David Burnham, Larry Martin, Peter Larson et Robert Bakker le positionnent plus en amont, directement rattaché à la famille des Dromaeosauridae[4]. 
+En 2012, P. Senter et ses collègues le placent comme un Eudromaeosauria basal.
+En 2015, Robert DePalma, David Burnham, Larry Martin, Peter Larson et Robert Bakker le positionnent plus en amont, directement rattaché à la famille des Dromaeosauridae. 
 En 2017, à la suite de la découverte d'un Dromaeosauridae très singulier, Halszkaraptor, A. Cau et ses collègues le replacent comme le plus basal des Eudromaeosauria dans le cladogramme ci-dessous :
-Le cladogramme suivant a été établi par Andrea Cau (d) et ses collègues en 2017[5] :
-Dans leurs analyses phylogénétiques, Lee et al. (2022) ont retrouvé Natovenator comme un membre dérivé des Halszkaraptorinae, Halszkaraptor étant le membre le plus basal du groupe. Le cladogramme ci-dessous montre les résultats de leurs analyses phylogénétiques[6] :
+Le cladogramme suivant a été établi par Andrea Cau (d) et ses collègues en 2017 :
+Dans leurs analyses phylogénétiques, Lee et al. (2022) ont retrouvé Natovenator comme un membre dérivé des Halszkaraptorinae, Halszkaraptor étant le membre le plus basal du groupe. Le cladogramme ci-dessous montre les résultats de leurs analyses phylogénétiques :
 </t>
         </is>
       </c>
